--- a/biology/Biochimie/Aminoacétone/Aminoacétone.xlsx
+++ b/biology/Biochimie/Aminoacétone/Aminoacétone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aminoac%C3%A9tone</t>
+          <t>Aminoacétone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'aminoacétone est un composé organique de formule chimique H2N–CH2–CO–CH3. C'est un métabolite issu de la dégradation de la thréonine et de la glycine qui tend à s'accumuler avec la maladie du cri du chat et la thréoninémie[2]. En effet, la thréonine est normalement oxydée en glycine et acétyl-CoA par la thréonine déshydrogénase en utilisant du NAD+, mais cette enzyme produit plutôt de l'aminoacétone lorsque le rapport de concentrations [acétyl-CoA]/[CoA] augmente, c'est-à-dire en période de jeûne ou en cas de diabète. Elle pourrait être un substrat pour l'amine primaire oxydase (EC 1.4.3.21), conduisant à la production du méthylglyoxal, un cytotoxique[3].
+L'aminoacétone est un composé organique de formule chimique H2N–CH2–CO–CH3. C'est un métabolite issu de la dégradation de la thréonine et de la glycine qui tend à s'accumuler avec la maladie du cri du chat et la thréoninémie. En effet, la thréonine est normalement oxydée en glycine et acétyl-CoA par la thréonine déshydrogénase en utilisant du NAD+, mais cette enzyme produit plutôt de l'aminoacétone lorsque le rapport de concentrations [acétyl-CoA]/[CoA] augmente, c'est-à-dire en période de jeûne ou en cas de diabète. Elle pourrait être un substrat pour l'amine primaire oxydase (EC 1.4.3.21), conduisant à la production du méthylglyoxal, un cytotoxique.
 </t>
         </is>
       </c>
